--- a/data/trans_orig/P14C19-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C19-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F1C352A-C141-40EA-BF75-7867BDF63536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53C34123-DAA8-48E3-AC9B-16FCB161C1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{33D4E216-EF09-4253-B5A4-A2E12EDF3716}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{751AA706-06FF-4B9B-9BF6-5883833EE73B}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -83,13 +83,13 @@
     <t>85,57%</t>
   </si>
   <si>
-    <t>58,86%</t>
+    <t>58,91%</t>
   </si>
   <si>
     <t>87,78%</t>
   </si>
   <si>
-    <t>63,88%</t>
+    <t>62,33%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -107,13 +107,13 @@
     <t>5,45%</t>
   </si>
   <si>
-    <t>28,56%</t>
+    <t>27,45%</t>
   </si>
   <si>
     <t>4,61%</t>
   </si>
   <si>
-    <t>24,37%</t>
+    <t>25,31%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -122,13 +122,13 @@
     <t>8,98%</t>
   </si>
   <si>
-    <t>34,66%</t>
+    <t>32,79%</t>
   </si>
   <si>
     <t>7,61%</t>
   </si>
   <si>
-    <t>33,7%</t>
+    <t>34,24%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -146,10 +146,10 @@
     <t>73,51%</t>
   </si>
   <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -164,10 +164,10 @@
     <t>26,49%</t>
   </si>
   <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -182,49 +182,49 @@
     <t>37,49%</t>
   </si>
   <si>
-    <t>80,25%</t>
+    <t>79,73%</t>
   </si>
   <si>
     <t>81,48%</t>
   </si>
   <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
   </si>
   <si>
     <t>76,4%</t>
   </si>
   <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
   </si>
   <si>
     <t>62,51%</t>
   </si>
   <si>
-    <t>19,75%</t>
+    <t>20,27%</t>
   </si>
   <si>
     <t>18,52%</t>
   </si>
   <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
   </si>
   <si>
     <t>23,6%</t>
   </si>
   <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -245,13 +245,13 @@
     <t>95,96%</t>
   </si>
   <si>
-    <t>82,77%</t>
+    <t>80,86%</t>
   </si>
   <si>
     <t>96,57%</t>
   </si>
   <si>
-    <t>84,76%</t>
+    <t>81,31%</t>
   </si>
   <si>
     <t>6,36%</t>
@@ -260,13 +260,13 @@
     <t>4,04%</t>
   </si>
   <si>
-    <t>17,23%</t>
+    <t>19,14%</t>
   </si>
   <si>
     <t>3,43%</t>
   </si>
   <si>
-    <t>15,24%</t>
+    <t>18,69%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -275,31 +275,25 @@
     <t>74,75%</t>
   </si>
   <si>
-    <t>23,89%</t>
-  </si>
-  <si>
     <t>76,75%</t>
   </si>
   <si>
     <t>90,74%</t>
   </si>
   <si>
-    <t>62,37%</t>
+    <t>59,52%</t>
   </si>
   <si>
     <t>25,25%</t>
   </si>
   <si>
-    <t>76,11%</t>
-  </si>
-  <si>
     <t>23,25%</t>
   </si>
   <si>
     <t>9,26%</t>
   </si>
   <si>
-    <t>37,63%</t>
+    <t>40,48%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -317,19 +311,19 @@
     <t>77,99%</t>
   </si>
   <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
   </si>
   <si>
     <t>80,85%</t>
   </si>
   <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -338,25 +332,25 @@
     <t>14,19%</t>
   </si>
   <si>
-    <t>44,46%</t>
+    <t>45,17%</t>
   </si>
   <si>
     <t>12,34%</t>
   </si>
   <si>
-    <t>40,27%</t>
+    <t>39,96%</t>
   </si>
   <si>
     <t>7,83%</t>
   </si>
   <si>
-    <t>33,02%</t>
+    <t>43,89%</t>
   </si>
   <si>
     <t>6,81%</t>
   </si>
   <si>
-    <t>33,95%</t>
+    <t>29,98%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -365,55 +359,55 @@
     <t>83,16%</t>
   </si>
   <si>
-    <t>55,81%</t>
+    <t>49,61%</t>
   </si>
   <si>
     <t>90,7%</t>
   </si>
   <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
   </si>
   <si>
     <t>88,64%</t>
   </si>
   <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
   </si>
   <si>
     <t>7,37%</t>
   </si>
   <si>
-    <t>37,76%</t>
+    <t>37,7%</t>
   </si>
   <si>
     <t>9,3%</t>
   </si>
   <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
   </si>
   <si>
     <t>8,77%</t>
   </si>
   <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
   </si>
   <si>
     <t>9,46%</t>
   </si>
   <si>
-    <t>37,09%</t>
+    <t>45,76%</t>
   </si>
   <si>
     <t>6,57%</t>
@@ -422,7 +416,7 @@
     <t>2,59%</t>
   </si>
   <si>
-    <t>13,06%</t>
+    <t>13,51%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -431,34 +425,34 @@
     <t>77,6%</t>
   </si>
   <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
   </si>
   <si>
     <t>80,53%</t>
   </si>
   <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
   </si>
   <si>
     <t>79,92%</t>
   </si>
   <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
   </si>
   <si>
     <t>7,27%</t>
   </si>
   <si>
-    <t>31,14%</t>
+    <t>37,94%</t>
   </si>
   <si>
     <t>17,11%</t>
@@ -467,112 +461,118 @@
     <t>8,12%</t>
   </si>
   <si>
-    <t>31,65%</t>
+    <t>31,72%</t>
   </si>
   <si>
     <t>15,07%</t>
   </si>
   <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
   </si>
   <si>
     <t>15,13%</t>
   </si>
   <si>
-    <t>45,33%</t>
+    <t>47,92%</t>
   </si>
   <si>
     <t>2,35%</t>
   </si>
   <si>
-    <t>15,29%</t>
+    <t>12,78%</t>
   </si>
   <si>
     <t>5,01%</t>
   </si>
   <si>
-    <t>13,29%</t>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
   </si>
   <si>
     <t>78,0%</t>
   </si>
   <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
   </si>
   <si>
     <t>85,42%</t>
   </si>
   <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
   </si>
   <si>
     <t>84,03%</t>
   </si>
   <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
   </si>
   <si>
     <t>14,93%</t>
   </si>
   <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
   </si>
   <si>
     <t>11,96%</t>
   </si>
   <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
   </si>
   <si>
     <t>12,52%</t>
   </si>
   <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
   </si>
   <si>
     <t>7,07%</t>
   </si>
   <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
   </si>
   <si>
     <t>2,62%</t>
   </si>
   <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
   </si>
   <si>
     <t>3,45%</t>
   </si>
   <si>
-    <t>7,03%</t>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -987,7 +987,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D683889C-5311-431F-B33B-02324BCED8A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDC60B9-A2BD-41A9-B3E6-ACB7E2B70F85}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1938,7 +1938,7 @@
         <v>78</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>11</v>
@@ -1953,7 +1953,7 @@
         <v>11</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>13</v>
@@ -1965,10 +1965,10 @@
         <v>9812</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>11</v>
@@ -1986,13 +1986,13 @@
         <v>1001</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>20</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -2016,13 +2016,13 @@
         <v>1001</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2043,7 +2043,7 @@
         <v>20</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>20</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2073,7 +2073,7 @@
         <v>20</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2129,7 +2129,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2144,7 +2144,7 @@
         <v>11</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>13</v>
@@ -2156,13 +2156,13 @@
         <v>11131</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M24" s="7">
         <v>11</v>
@@ -2171,13 +2171,13 @@
         <v>13266</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2198,7 +2198,7 @@
         <v>20</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -2207,13 +2207,13 @@
         <v>2025</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -2222,13 +2222,13 @@
         <v>2025</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2249,7 +2249,7 @@
         <v>20</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2258,13 +2258,13 @@
         <v>1117</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2273,13 +2273,13 @@
         <v>1117</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2335,7 +2335,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2347,10 +2347,10 @@
         <v>10042</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>11</v>
@@ -2362,13 +2362,13 @@
         <v>29029</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M28" s="7">
         <v>35</v>
@@ -2377,13 +2377,13 @@
         <v>39071</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2398,13 +2398,13 @@
         <v>890</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -2413,13 +2413,13 @@
         <v>2975</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -2428,13 +2428,13 @@
         <v>3865</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2449,13 +2449,13 @@
         <v>1143</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2470,7 +2470,7 @@
         <v>20</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -2479,13 +2479,13 @@
         <v>1143</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2541,7 +2541,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2553,13 +2553,13 @@
         <v>11590</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H32" s="7">
         <v>39</v>
@@ -2568,13 +2568,13 @@
         <v>45924</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M32" s="7">
         <v>50</v>
@@ -2583,13 +2583,13 @@
         <v>57514</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2604,13 +2604,13 @@
         <v>1086</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H33" s="7">
         <v>8</v>
@@ -2619,13 +2619,13 @@
         <v>9760</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M33" s="7">
         <v>9</v>
@@ -2634,13 +2634,13 @@
         <v>10846</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2655,13 +2655,13 @@
         <v>2260</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -2670,13 +2670,13 @@
         <v>1342</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M34" s="7">
         <v>3</v>
@@ -2685,13 +2685,13 @@
         <v>3602</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,13 +2759,13 @@
         <v>37539</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H36" s="7">
         <v>152</v>
@@ -2774,13 +2774,13 @@
         <v>178778</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M36" s="7">
         <v>188</v>
@@ -2789,13 +2789,13 @@
         <v>216316</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2810,13 +2810,13 @@
         <v>7185</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H37" s="7">
         <v>23</v>
@@ -2825,13 +2825,13 @@
         <v>25033</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M37" s="7">
         <v>30</v>
@@ -2840,13 +2840,13 @@
         <v>32218</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,13 +2861,13 @@
         <v>3403</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H38" s="7">
         <v>4</v>
@@ -2876,13 +2876,13 @@
         <v>5483</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M38" s="7">
         <v>7</v>
@@ -2891,10 +2891,10 @@
         <v>8886</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>178</v>

--- a/data/trans_orig/P14C19-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C19-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53C34123-DAA8-48E3-AC9B-16FCB161C1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD4209F0-8DBB-467E-A0C1-506C3D5E8FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{751AA706-06FF-4B9B-9BF6-5883833EE73B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{026666D7-D9FA-4358-A0F9-2936D826E382}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="180">
-  <si>
-    <t>Población según el tiempo de diagnóstico del varices en las piernas en 2015 (Tasa respuesta: 3,43%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="181">
+  <si>
+    <t>Población según el tiempo de diagnóstico del varices en las piernas en 2016 (Tasa respuesta: 3,43%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -83,13 +83,13 @@
     <t>85,57%</t>
   </si>
   <si>
-    <t>58,91%</t>
+    <t>59,93%</t>
   </si>
   <si>
     <t>87,78%</t>
   </si>
   <si>
-    <t>62,33%</t>
+    <t>62,45%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -107,13 +107,13 @@
     <t>5,45%</t>
   </si>
   <si>
-    <t>27,45%</t>
+    <t>22,66%</t>
   </si>
   <si>
     <t>4,61%</t>
   </si>
   <si>
-    <t>25,31%</t>
+    <t>24,38%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -122,13 +122,13 @@
     <t>8,98%</t>
   </si>
   <si>
-    <t>32,79%</t>
+    <t>33,5%</t>
   </si>
   <si>
     <t>7,61%</t>
   </si>
   <si>
-    <t>34,24%</t>
+    <t>33,87%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -140,16 +140,16 @@
     <t>80,78%</t>
   </si>
   <si>
-    <t>46,5%</t>
+    <t>42,47%</t>
   </si>
   <si>
     <t>73,51%</t>
   </si>
   <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -158,16 +158,16 @@
     <t>19,22%</t>
   </si>
   <si>
-    <t>53,5%</t>
+    <t>57,53%</t>
   </si>
   <si>
     <t>26,49%</t>
   </si>
   <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -188,19 +188,19 @@
     <t>81,48%</t>
   </si>
   <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
   </si>
   <si>
     <t>76,4%</t>
   </si>
   <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
   </si>
   <si>
     <t>62,51%</t>
@@ -212,349 +212,352 @@
     <t>18,52%</t>
   </si>
   <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
     <t>7,8%</t>
   </si>
   <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
+    <t>17,01%</t>
   </si>
   <si>
     <t>12,52%</t>
   </si>
   <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
+    <t>8,94%</t>
   </si>
   <si>
     <t>7,07%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
   </si>
   <si>
     <t>2,62%</t>
@@ -563,16 +566,16 @@
     <t>0,59%</t>
   </si>
   <si>
-    <t>6,04%</t>
+    <t>6,09%</t>
   </si>
   <si>
     <t>3,45%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -987,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDC60B9-A2BD-41A9-B3E6-ACB7E2B70F85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C00195-D9DF-4936-BDFB-7CDFE36E3A68}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1938,7 +1941,7 @@
         <v>78</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>11</v>
@@ -1953,7 +1956,7 @@
         <v>11</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>13</v>
@@ -1965,10 +1968,10 @@
         <v>9812</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>11</v>
@@ -1986,13 +1989,13 @@
         <v>1001</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2007,7 +2010,7 @@
         <v>20</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -2016,13 +2019,13 @@
         <v>1001</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2043,7 +2046,7 @@
         <v>20</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2058,7 +2061,7 @@
         <v>20</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2073,7 +2076,7 @@
         <v>20</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2129,7 +2132,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2144,7 +2147,7 @@
         <v>11</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>13</v>
@@ -2156,13 +2159,13 @@
         <v>11131</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M24" s="7">
         <v>11</v>
@@ -2171,13 +2174,13 @@
         <v>13266</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2198,7 +2201,7 @@
         <v>20</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -2207,13 +2210,13 @@
         <v>2025</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -2222,13 +2225,13 @@
         <v>2025</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2249,7 +2252,7 @@
         <v>20</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2258,13 +2261,13 @@
         <v>1117</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2273,13 +2276,13 @@
         <v>1117</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2335,7 +2338,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2347,10 +2350,10 @@
         <v>10042</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>11</v>
@@ -2362,13 +2365,13 @@
         <v>29029</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M28" s="7">
         <v>35</v>
@@ -2377,13 +2380,13 @@
         <v>39071</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2398,13 +2401,13 @@
         <v>890</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -2413,13 +2416,13 @@
         <v>2975</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -2428,13 +2431,13 @@
         <v>3865</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2449,13 +2452,13 @@
         <v>1143</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2470,7 +2473,7 @@
         <v>20</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -2479,13 +2482,13 @@
         <v>1143</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2541,7 +2544,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2553,13 +2556,13 @@
         <v>11590</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H32" s="7">
         <v>39</v>
@@ -2568,13 +2571,13 @@
         <v>45924</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M32" s="7">
         <v>50</v>
@@ -2583,13 +2586,13 @@
         <v>57514</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2604,13 +2607,13 @@
         <v>1086</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H33" s="7">
         <v>8</v>
@@ -2619,13 +2622,13 @@
         <v>9760</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M33" s="7">
         <v>9</v>
@@ -2634,13 +2637,13 @@
         <v>10846</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2655,13 +2658,13 @@
         <v>2260</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -2670,13 +2673,13 @@
         <v>1342</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M34" s="7">
         <v>3</v>
@@ -2685,13 +2688,13 @@
         <v>3602</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,13 +2762,13 @@
         <v>37539</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H36" s="7">
         <v>152</v>
@@ -2774,13 +2777,13 @@
         <v>178778</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M36" s="7">
         <v>188</v>
@@ -2789,13 +2792,13 @@
         <v>216316</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2810,13 +2813,13 @@
         <v>7185</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H37" s="7">
         <v>23</v>
@@ -2825,13 +2828,13 @@
         <v>25033</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M37" s="7">
         <v>30</v>
@@ -2840,13 +2843,13 @@
         <v>32218</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>169</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,13 +2864,13 @@
         <v>3403</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H38" s="7">
         <v>4</v>
@@ -2876,13 +2879,13 @@
         <v>5483</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M38" s="7">
         <v>7</v>
@@ -2891,13 +2894,13 @@
         <v>8886</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,7 +2956,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
